--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendr\source\repos\Project_IVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87FA90B8-4387-4E67-9E72-395D8DCE5DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92FCBE9-ADD9-463B-AEA5-FBFD86F24F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B948DCAA-5CC5-432C-91FC-C7CBEFC9B730}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B948DCAA-5CC5-432C-91FC-C7CBEFC9B730}"/>
   </bookViews>
   <sheets>
     <sheet name="Instance1Jens" sheetId="1" r:id="rId1"/>
+    <sheet name="Instance2Jens" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +70,135 @@
   </si>
   <si>
     <t>INSTANE 1 Jens (PMDa)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>INSTANE 2 Jens (PCa)</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BC</t>
   </si>
 </sst>
 </file>
@@ -443,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C185FCB6-45B9-4858-B94F-E1AA8F66458B}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,8 +632,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>0.43</v>
@@ -536,8 +666,8 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>0.24</v>
@@ -570,8 +700,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>3</v>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>0.62</v>
@@ -602,8 +732,8 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>4</v>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>0.2</v>
@@ -636,8 +766,8 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>5</v>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>0.27</v>
@@ -669,8 +799,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>6</v>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>0.33</v>
@@ -701,8 +831,8 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>7</v>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>0.5</v>
@@ -734,8 +864,8 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>8</v>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>0.33</v>
@@ -768,8 +898,8 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>9</v>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>0.33</v>
@@ -801,8 +931,8 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>10</v>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>0.45</v>
@@ -834,8 +964,8 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>11</v>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>0.5</v>
@@ -867,8 +997,8 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>12</v>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>7.0000000000000007E-2</v>
@@ -901,8 +1031,8 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>13</v>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>0.25</v>
@@ -928,6 +1058,1059 @@
       </c>
       <c r="J15" s="2">
         <v>2.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814A8B03-1AEB-4317-A003-F75D91FA1BEB}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="2">
+        <f>SUM(C3:F3)</f>
+        <v>1.9333333333333336</v>
+      </c>
+      <c r="H3" s="2">
+        <f>2*D3+F3</f>
+        <v>1.35</v>
+      </c>
+      <c r="I3" s="2">
+        <v>44.166666666666664</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.35434173669467783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G31" si="0">SUM(C4:F4)</f>
+        <v>2.75</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H31" si="1">2*D4+F4</f>
+        <v>2.35</v>
+      </c>
+      <c r="I4" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.5164992826398852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5666666666666667</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="I5" s="2">
+        <v>67.916666666666671</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.48065534938807741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8166666666666667</v>
+      </c>
+      <c r="I6" s="2">
+        <v>98.333333333333329</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.27893445895841651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5833333333333335</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="I7" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.48258842884562658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2833333333333334</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="I8" s="2">
+        <v>214.16666666666666</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.4384228093002206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7833333333333334</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.45</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.47102959566486041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="I10" s="2">
+        <v>198.33333333333334</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.39475707257072568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="I11" s="2">
+        <v>152.5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.36975006441638752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="I12" s="2">
+        <v>31.333333333333332</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.51662707838479804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2166666666666668</v>
+      </c>
+      <c r="I13" s="2">
+        <v>59.833333333333336</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.64769975786924938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>2.35</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100.83333333333333</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.49569418189455999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.45</v>
+      </c>
+      <c r="I15" s="2">
+        <v>49.166666666666664</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.47013487475915222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3166666666666667</v>
+      </c>
+      <c r="I16" s="2">
+        <v>75</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.52422455780569088</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I17" s="2">
+        <v>64.666666666666657</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.49033474776049035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>1.95</v>
+      </c>
+      <c r="I18" s="2">
+        <v>89.166666666666671</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.42561349693251532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.21666666666666701</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.216666666666667</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.68333333333333401</v>
+      </c>
+      <c r="I19" s="2">
+        <v>53.3333333333333</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.4532462229481421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.15</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="I20" s="2">
+        <v>48.583333333333336</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.47394429469901167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="I21" s="2">
+        <v>122</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.58189999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3166666666666667</v>
+      </c>
+      <c r="I22" s="2">
+        <v>117.91666666666667</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.38226552179656537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2166666666666668</v>
+      </c>
+      <c r="I23" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.29091236602719983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>1.45</v>
+      </c>
+      <c r="I24" s="2">
+        <v>69.166666666666671</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.40646721063765484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5166666666666666</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>2.35</v>
+      </c>
+      <c r="I25" s="2">
+        <v>68.833333333333329</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.50642148277875076</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="I26" s="2">
+        <v>40</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.54254302103250474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I27" s="2">
+        <v>44.166666666666664</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.39722386296515061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8166666666666667</v>
+      </c>
+      <c r="I28" s="2">
+        <v>216.66666666666666</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.33560636448723091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+      <c r="I29" s="2">
+        <v>27.916666666666668</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.37325349301397204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9666666666666668</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6833333333333333</v>
+      </c>
+      <c r="I30" s="2">
+        <v>69.166666666666671</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.37030995106035891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3166666666666667</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="I31" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.44373599862140273</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendr\source\repos\Project_IVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92FCBE9-ADD9-463B-AEA5-FBFD86F24F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D09A407-0D35-492B-8C9D-525EA8C0AE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B948DCAA-5CC5-432C-91FC-C7CBEFC9B730}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B948DCAA-5CC5-432C-91FC-C7CBEFC9B730}"/>
   </bookViews>
   <sheets>
     <sheet name="Instance1Jens" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -114,6 +114,9 @@
     <t>INSTANE 2 Jens (PCa)</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>AA</t>
   </si>
   <si>
@@ -199,6 +202,30 @@
   </si>
   <si>
     <t>BC</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>c_h</t>
+  </si>
+  <si>
+    <t>c_veh</t>
+  </si>
+  <si>
+    <t>|V|</t>
+  </si>
+  <si>
+    <t>Wm</t>
+  </si>
+  <si>
+    <t>Pca</t>
+  </si>
+  <si>
+    <t>(ook PKa) Papier &amp; Karton</t>
+  </si>
+  <si>
+    <t>PMDa</t>
   </si>
 </sst>
 </file>
@@ -571,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C185FCB6-45B9-4858-B94F-E1AA8F66458B}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,6 +1087,70 @@
         <v>2.15</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -1070,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814A8B03-1AEB-4317-A003-F75D91FA1BEB}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2">
         <v>0.65</v>
@@ -1166,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>0.96666666666666667</v>
@@ -1200,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2">
         <v>0.46666666666666667</v>
@@ -1234,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>0.6166666666666667</v>
@@ -1268,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>0.43333333333333335</v>
@@ -1302,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>0.23333333333333334</v>
@@ -1336,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>0.45</v>
@@ -1370,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>0.6</v>
@@ -1404,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>0.28333333333333333</v>
@@ -1438,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>0.35</v>
@@ -1472,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>0.45</v>
@@ -1506,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2">
         <v>0.91666666666666663</v>
@@ -1540,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2">
         <v>0.46666666666666667</v>
@@ -1574,7 +1665,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>0.28333333333333333</v>
@@ -1608,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>0.26666666666666666</v>
@@ -1642,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>0.5</v>
@@ -1676,7 +1767,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
         <v>0.26666666666666666</v>
@@ -1710,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
         <v>0.66666666666666663</v>
@@ -1744,7 +1835,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
         <v>0.45</v>
@@ -1778,7 +1869,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
         <v>0.48333333333333334</v>
@@ -1812,7 +1903,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
         <v>0.13333333333333333</v>
@@ -1846,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2">
         <v>0.6</v>
@@ -1880,7 +1971,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2">
         <v>0.73333333333333328</v>
@@ -1914,7 +2005,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2">
         <v>0.48333333333333334</v>
@@ -1948,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2">
         <v>0.76666666666666672</v>
@@ -1982,7 +2073,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2">
         <v>0.55000000000000004</v>
@@ -2016,7 +2107,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2">
         <v>0.41666666666666669</v>
@@ -2050,7 +2141,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2">
         <v>0.51666666666666672</v>
@@ -2084,7 +2175,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2">
         <v>0.21666666666666667</v>
@@ -2111,6 +2202,73 @@
       </c>
       <c r="J31" s="2">
         <v>0.44373599862140273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
